--- a/tests/NFTA/nftaresources/testresources/TestData.xlsx
+++ b/tests/NFTA/nftaresources/testresources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="5055" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="5055" tabRatio="991" firstSheet="29" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="5" r:id="rId1"/>
@@ -39,13 +39,17 @@
     <sheet name="TextAreaType_Test_Data" sheetId="34" r:id="rId30"/>
     <sheet name="EditorType_Test_Data" sheetId="35" r:id="rId31"/>
     <sheet name="FileType_Test_Data" sheetId="36" r:id="rId32"/>
+    <sheet name="CheckboxType_Test_Data" sheetId="37" r:id="rId33"/>
+    <sheet name="SQLType_Test_Data" sheetId="38" r:id="rId34"/>
+    <sheet name="CounterType_Test_Data" sheetId="39" r:id="rId35"/>
+    <sheet name="FEListView_Test_Data" sheetId="40" r:id="rId36"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="378">
   <si>
     <t>TSID</t>
   </si>
@@ -873,9 +877,6 @@
     <t>col|Value1</t>
   </si>
   <si>
-    <t>ClickOnPlus</t>
-  </si>
-  <si>
     <t>Text2</t>
   </si>
   <si>
@@ -1024,6 +1025,297 @@
   </si>
   <si>
     <t>columns</t>
+  </si>
+  <si>
+    <t>CheckboxType</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>×
+Message
+1 item successfully unpublished</t>
+  </si>
+  <si>
+    <t>×
+Message
+1 item successfully published</t>
+  </si>
+  <si>
+    <t>×
+Message
+1 item successfully trashed</t>
+  </si>
+  <si>
+    <t>SQLType</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>sendSQL</t>
+  </si>
+  <si>
+    <t>col|Query</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>select `username` As `value` from `lwb_users`</t>
+  </si>
+  <si>
+    <t>CounterType</t>
+  </si>
+  <si>
+    <t>maxlen</t>
+  </si>
+  <si>
+    <t>minlen</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>col|Rows</t>
+  </si>
+  <si>
+    <t>col|Columns</t>
+  </si>
+  <si>
+    <t>col|MinLengh</t>
+  </si>
+  <si>
+    <t>col|Hint</t>
+  </si>
+  <si>
+    <t>Textarea - Character Counter</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>MinLength</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Counter Display</t>
+  </si>
+  <si>
+    <t>FEListView</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>listMenu</t>
+  </si>
+  <si>
+    <t>searchbox</t>
+  </si>
+  <si>
+    <t>col|Search</t>
+  </si>
+  <si>
+    <t>clickAtSearch</t>
+  </si>
+  <si>
+    <t>clickAtclear</t>
+  </si>
+  <si>
+    <t>FailCannot find elements when the XPath is null.</t>
+  </si>
+  <si>
+    <t>Result2</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; no such element: Unable to locate element: {"method":"xpath","selector":"//button[@class='btn btn-small button-new btn-success']"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:51829}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 852f0291ced12924c701260f24d82755
+*** Element info: {Using=xpath, value=//button[@class='btn btn-small button-new btn-success']} )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="submenu"]"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:51829}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 852f0291ced12924c701260f24d82755
+*** Element info: {Using=xpath, value=//*[@id="submenu"]} )</t>
+  </si>
+  <si>
+    <t>Failno such element: Unable to locate element: {"method":"link text","selector":"Fields"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:51829}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 852f0291ced12924c701260f24d82755
+*** Element info: {Using=link text, value=Fields}</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="jform_type_chzn"]"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:51829}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 852f0291ced12924c701260f24d82755
+*** Element info: {Using=xpath, value=//*[@id="jform_type_chzn"]} )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="jform_type_chzn"]/a/div/b"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:51829}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 852f0291ced12924c701260f24d82755
+*** Element info: {Using=xpath, value=//*[@id="jform_type_chzn"]/a/div/b} )</t>
+  </si>
+  <si>
+    <t>Failno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="jform_label"]  "}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:51829}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 852f0291ced12924c701260f24d82755
+*** Element info: {Using=xpath, value=//*[@id="jform_label"]  }</t>
+  </si>
+  <si>
+    <t>Failno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="jform_name"]"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:51829}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 852f0291ced12924c701260f24d82755
+*** Element info: {Using=xpath, value=//*[@id="jform_name"]}</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; unexpected alert open: {Alert text : Invalid form}
+  (Session info: chrome=92.0.4515.159): Invalid form
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387
+*** Element info: {Using=xpath, value=//div[@class="alert alert-error alert-danger"]} )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; unexpected alert open: {Alert text : Invalid form}
+  (Session info: chrome=92.0.4515.159): Invalid form
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387
+*** Element info: {Using=xpath, value=//*[@id="system-message-container"]/div  } )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; unexpected alert open: {Alert text : Form you trying to save is invalid. Make sure you have filled all mandatory details.}
+  (Session info: chrome=92.0.4515.159): Form you trying to save is invalid. Make sure you have filled all mandatory details.
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387
+*** Element info: {Using=xpath, value=//*[@id="system-message-container"]/div  } )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; unexpected alert open: {Alert text : Form you trying to save is invalid. Make sure you have filled all mandatory details.}
+  (Session info: chrome=92.0.4515.159): Form you trying to save is invalid. Make sure you have filled all mandatory details.
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387
+*** Element info: {Using=xpath, value=//button[@class='btn btn-small button-new btn-success']} )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; element click intercepted: Element &lt;div class="chzn-container chzn-container-single" style="width: 220px;" title="" id="jform_type_chzn"&gt;...&lt;/div&gt; is not clickable at point (310, 588). Other element would receive the click: &lt;div id="status" class="navbar navbar-fixed-bottom hidden-phone"&gt;...&lt;/div&gt;
+  (Session info: chrome=92.0.4515.159)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387 )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; element click intercepted: Element &lt;label for="jform_params_ucmItemOwner0" class="btn"&gt;...&lt;/label&gt; is not clickable at point (238, 585). Other element would receive the click: &lt;li class="active-result" data-option-array-index="18" style=""&gt;...&lt;/li&gt;
+  (Session info: chrome=92.0.4515.159)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387 )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="jform_type_chzn"]"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387
+*** Element info: {Using=xpath, value=//*[@id="jform_type_chzn"]} )</t>
+  </si>
+  <si>
+    <t>Fail (Cause of Failure &gt;&gt; element click intercepted: Element &lt;a class="btn btn-mini button btn-success group-add group-add-sr-0" aria-label="Add"&gt;...&lt;/a&gt; is not clickable at point (538, 38). Other element would receive the click: &lt;div class="span12"&gt;...&lt;/div&gt;
+  (Session info: chrome=92.0.4515.159)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387 )</t>
+  </si>
+  <si>
+    <t>Failno such element: Unable to locate element: {"method":"xpath","selector":"//input[@name='jform[fieldoption][fieldoption1][name]']"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387
+*** Element info: {Using=xpath, value=//input[@name='jform[fieldoption][fieldoption1][name]']}</t>
+  </si>
+  <si>
+    <t>Failno such element: Unable to locate element: {"method":"xpath","selector":"//input[@name='jform[fieldoption][fieldoption1][value]']"}
+  (Session info: chrome=92.0.4515.159)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-T82OV3Q', ip: '192.168.43.38', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.159, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:52576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1c1e627c9507f28de0d6cfdb3d2f6387
+*** Element info: {Using=xpath, value=//input[@name='jform[fieldoption][fieldoption1][value]']}</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1515,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1568,7 +1860,7 @@
       <c r="E2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1579,7 +1871,7 @@
       <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1590,7 +1882,7 @@
       <c r="D4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1601,7 +1893,7 @@
       <c r="D5" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1612,7 +1904,7 @@
       <c r="D6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1623,7 +1915,7 @@
       <c r="D7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1634,7 +1926,7 @@
       <c r="D8" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1645,7 +1937,7 @@
       <c r="D9" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1656,7 +1948,7 @@
       <c r="D10" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1667,7 +1959,7 @@
       <c r="D11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1678,7 +1970,7 @@
       <c r="D12" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1689,7 +1981,7 @@
       <c r="D13" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1700,95 +1992,172 @@
       <c r="D14" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F15" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="F21" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="F22" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1803,7 +2172,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1843,7 +2212,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2347,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G378"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
-    <sheetView topLeftCell="A345" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A357" sqref="A357"/>
+    <sheetView topLeftCell="A230" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2359,12 +2728,12 @@
     <col min="3" max="3" width="30.85546875" style="11" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.28515625" style="11" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="20.5703125" style="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="11" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="11"/>
+    <col min="6" max="6" width="255" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.85546875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="16384" width="9.140625" style="11" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2380,8 +2749,14 @@
       <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -2391,8 +2766,11 @@
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -2402,8 +2780,11 @@
       <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -2416,8 +2797,11 @@
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -2430,8 +2814,11 @@
       <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -2441,8 +2828,11 @@
       <c r="D6" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -2452,8 +2842,11 @@
       <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -2463,16 +2856,22 @@
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
@@ -2482,8 +2881,11 @@
       <c r="D10" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -2496,8 +2898,11 @@
       <c r="E11" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
@@ -2507,8 +2912,11 @@
       <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
@@ -2518,8 +2926,11 @@
       <c r="D13" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
@@ -2529,8 +2940,11 @@
       <c r="D14" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
@@ -2540,8 +2954,11 @@
       <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
@@ -2551,8 +2968,11 @@
       <c r="D16" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
@@ -2560,7 +2980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>49</v>
       </c>
@@ -2571,7 +2991,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>49</v>
       </c>
@@ -2582,7 +3002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>49</v>
       </c>
@@ -2593,7 +3013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
@@ -2607,7 +3027,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>49</v>
       </c>
@@ -2615,7 +3035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>49</v>
       </c>
@@ -2626,7 +3046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>49</v>
       </c>
@@ -2637,7 +3057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>49</v>
       </c>
@@ -2645,7 +3065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>49</v>
       </c>
@@ -2656,7 +3076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>28</v>
       </c>
@@ -2666,8 +3086,11 @@
       <c r="D27" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
@@ -2677,8 +3100,11 @@
       <c r="D28" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
@@ -2688,8 +3114,11 @@
       <c r="D29" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -2699,8 +3128,11 @@
       <c r="D30" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -2710,8 +3142,11 @@
       <c r="D31" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -2721,8 +3156,11 @@
       <c r="D32" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>28</v>
       </c>
@@ -2732,8 +3170,11 @@
       <c r="D33" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>28</v>
       </c>
@@ -2743,8 +3184,11 @@
       <c r="D34" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>28</v>
       </c>
@@ -2754,16 +3198,22 @@
       <c r="D35" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>61</v>
       </c>
@@ -2773,8 +3223,11 @@
       <c r="D37" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>61</v>
       </c>
@@ -2787,8 +3240,11 @@
       <c r="E38" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>61</v>
       </c>
@@ -2798,8 +3254,11 @@
       <c r="D39" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>61</v>
       </c>
@@ -2809,8 +3268,11 @@
       <c r="D40" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>61</v>
       </c>
@@ -2820,8 +3282,11 @@
       <c r="D41" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>61</v>
       </c>
@@ -2834,8 +3299,11 @@
       <c r="E42" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>61</v>
       </c>
@@ -2845,8 +3313,11 @@
       <c r="D43" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>61</v>
       </c>
@@ -2856,8 +3327,11 @@
       <c r="D44" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>61</v>
       </c>
@@ -2867,8 +3341,11 @@
       <c r="D45" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>61</v>
       </c>
@@ -2878,8 +3355,11 @@
       <c r="D46" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>61</v>
       </c>
@@ -2889,8 +3369,11 @@
       <c r="D47" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
@@ -2900,8 +3383,11 @@
       <c r="D48" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>61</v>
       </c>
@@ -2911,8 +3397,11 @@
       <c r="D49" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>61</v>
       </c>
@@ -2922,8 +3411,11 @@
       <c r="D50" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>61</v>
       </c>
@@ -2933,8 +3425,11 @@
       <c r="D51" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>61</v>
       </c>
@@ -2944,8 +3439,11 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>61</v>
       </c>
@@ -2955,8 +3453,11 @@
       <c r="D53" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>61</v>
       </c>
@@ -2966,8 +3467,11 @@
       <c r="D54" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>61</v>
       </c>
@@ -2977,8 +3481,11 @@
       <c r="D55" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>61</v>
       </c>
@@ -2988,8 +3495,11 @@
       <c r="D56" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3509,11 @@
       <c r="D57" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>61</v>
       </c>
@@ -3013,8 +3526,11 @@
       <c r="E58" s="11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>61</v>
       </c>
@@ -3024,8 +3540,11 @@
       <c r="D59" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>61</v>
       </c>
@@ -3035,8 +3554,11 @@
       <c r="D60" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>61</v>
       </c>
@@ -3046,8 +3568,11 @@
       <c r="D61" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>115</v>
       </c>
@@ -3057,8 +3582,11 @@
       <c r="D62" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>115</v>
       </c>
@@ -3071,16 +3599,22 @@
       <c r="E63" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>115</v>
       </c>
@@ -3093,8 +3627,11 @@
       <c r="E65" s="11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>115</v>
       </c>
@@ -3107,8 +3644,11 @@
       <c r="E66" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>115</v>
       </c>
@@ -3118,8 +3658,11 @@
       <c r="D67" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>115</v>
       </c>
@@ -3132,8 +3675,11 @@
       <c r="E68" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>115</v>
       </c>
@@ -3146,8 +3692,11 @@
       <c r="E69" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>115</v>
       </c>
@@ -3160,8 +3709,11 @@
       <c r="E70" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>115</v>
       </c>
@@ -3174,8 +3726,11 @@
       <c r="E71" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>115</v>
       </c>
@@ -3185,16 +3740,22 @@
       <c r="D72" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>105</v>
       </c>
@@ -3204,8 +3765,11 @@
       <c r="D74" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>105</v>
       </c>
@@ -3218,16 +3782,22 @@
       <c r="E75" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>105</v>
       </c>
@@ -3240,8 +3810,11 @@
       <c r="E77" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>105</v>
       </c>
@@ -3254,8 +3827,11 @@
       <c r="E78" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>105</v>
       </c>
@@ -3268,8 +3844,11 @@
       <c r="E79" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>105</v>
       </c>
@@ -3282,8 +3861,11 @@
       <c r="E80" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>105</v>
       </c>
@@ -3293,8 +3875,11 @@
       <c r="D81" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>105</v>
       </c>
@@ -3304,8 +3889,11 @@
       <c r="D82" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>105</v>
       </c>
@@ -3318,8 +3906,11 @@
       <c r="E83" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>105</v>
       </c>
@@ -3329,8 +3920,11 @@
       <c r="D84" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>105</v>
       </c>
@@ -3340,8 +3934,11 @@
       <c r="D85" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>105</v>
       </c>
@@ -3351,8 +3948,11 @@
       <c r="D86" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>70</v>
       </c>
@@ -3362,8 +3962,11 @@
       <c r="D87" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>70</v>
       </c>
@@ -3376,16 +3979,22 @@
       <c r="E88" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>70</v>
       </c>
@@ -3398,8 +4007,11 @@
       <c r="E90" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>70</v>
       </c>
@@ -3412,8 +4024,11 @@
       <c r="E91" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>70</v>
       </c>
@@ -3426,8 +4041,11 @@
       <c r="E92" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>70</v>
       </c>
@@ -3437,16 +4055,22 @@
       <c r="D93" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>70</v>
       </c>
@@ -3456,16 +4080,22 @@
       <c r="D95" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>128</v>
       </c>
@@ -3475,8 +4105,11 @@
       <c r="D97" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>128</v>
       </c>
@@ -3489,8 +4122,11 @@
       <c r="E98" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>128</v>
       </c>
@@ -3500,8 +4136,11 @@
       <c r="D99" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>128</v>
       </c>
@@ -3514,8 +4153,11 @@
       <c r="E100" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>128</v>
       </c>
@@ -3528,8 +4170,11 @@
       <c r="E101" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>128</v>
       </c>
@@ -3542,8 +4187,11 @@
       <c r="E102" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>128</v>
       </c>
@@ -3556,24 +4204,33 @@
       <c r="E103" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>128</v>
       </c>
@@ -3583,16 +4240,22 @@
       <c r="D106" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>128</v>
       </c>
@@ -3602,16 +4265,22 @@
       <c r="D108" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>128</v>
       </c>
@@ -3621,16 +4290,22 @@
       <c r="D110" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>128</v>
       </c>
@@ -3640,16 +4315,22 @@
       <c r="D112" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>128</v>
       </c>
@@ -3659,16 +4340,22 @@
       <c r="D114" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>128</v>
       </c>
@@ -3678,8 +4365,11 @@
       <c r="D116" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>128</v>
       </c>
@@ -3689,8 +4379,11 @@
       <c r="D117" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>143</v>
       </c>
@@ -3700,8 +4393,11 @@
       <c r="D118" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>143</v>
       </c>
@@ -3714,8 +4410,11 @@
       <c r="E119" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>143</v>
       </c>
@@ -3725,16 +4424,22 @@
       <c r="D120" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>143</v>
       </c>
@@ -3747,8 +4452,11 @@
       <c r="E122" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>143</v>
       </c>
@@ -3761,8 +4469,11 @@
       <c r="E123" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>143</v>
       </c>
@@ -3775,8 +4486,11 @@
       <c r="E124" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>143</v>
       </c>
@@ -3789,8 +4503,11 @@
       <c r="E125" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>143</v>
       </c>
@@ -3803,8 +4520,11 @@
       <c r="E126" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>143</v>
       </c>
@@ -3814,8 +4534,11 @@
       <c r="D127" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>143</v>
       </c>
@@ -3825,8 +4548,11 @@
       <c r="D128" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>143</v>
       </c>
@@ -3839,8 +4565,11 @@
       <c r="E129" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>143</v>
       </c>
@@ -3850,8 +4579,11 @@
       <c r="D130" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>143</v>
       </c>
@@ -3861,8 +4593,11 @@
       <c r="D131" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>143</v>
       </c>
@@ -3872,8 +4607,11 @@
       <c r="D132" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>154</v>
       </c>
@@ -3883,8 +4621,11 @@
       <c r="D133" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>154</v>
       </c>
@@ -3897,8 +4638,11 @@
       <c r="E134" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>154</v>
       </c>
@@ -3908,8 +4652,11 @@
       <c r="D135" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>154</v>
       </c>
@@ -3922,8 +4669,11 @@
       <c r="E136" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>154</v>
       </c>
@@ -3936,8 +4686,11 @@
       <c r="E137" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>154</v>
       </c>
@@ -3947,8 +4700,11 @@
       <c r="D138" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>154</v>
       </c>
@@ -3958,8 +4714,11 @@
       <c r="D139" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>154</v>
       </c>
@@ -3972,8 +4731,11 @@
       <c r="E140" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>154</v>
       </c>
@@ -3983,8 +4745,11 @@
       <c r="D141" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>154</v>
       </c>
@@ -3994,8 +4759,11 @@
       <c r="D142" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>154</v>
       </c>
@@ -4005,8 +4773,11 @@
       <c r="D143" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>159</v>
       </c>
@@ -4016,8 +4787,11 @@
       <c r="D144" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>159</v>
       </c>
@@ -4030,8 +4804,11 @@
       <c r="E145" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
         <v>159</v>
       </c>
@@ -4041,8 +4818,11 @@
       <c r="D146" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
         <v>159</v>
       </c>
@@ -4055,8 +4835,11 @@
       <c r="E147" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>159</v>
       </c>
@@ -4069,8 +4852,11 @@
       <c r="E148" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>159</v>
       </c>
@@ -4080,8 +4866,11 @@
       <c r="D149" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>159</v>
       </c>
@@ -4091,8 +4880,11 @@
       <c r="D150" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>159</v>
       </c>
@@ -4105,8 +4897,11 @@
       <c r="E151" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>159</v>
       </c>
@@ -4116,8 +4911,11 @@
       <c r="D152" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
         <v>159</v>
       </c>
@@ -4127,8 +4925,11 @@
       <c r="D153" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
         <v>159</v>
       </c>
@@ -4138,8 +4939,11 @@
       <c r="D154" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
         <v>162</v>
       </c>
@@ -4149,8 +4953,11 @@
       <c r="D155" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>162</v>
       </c>
@@ -4163,8 +4970,11 @@
       <c r="E156" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>162</v>
       </c>
@@ -4174,8 +4984,11 @@
       <c r="D157" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>162</v>
       </c>
@@ -4188,8 +5001,11 @@
       <c r="E158" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>162</v>
       </c>
@@ -4202,8 +5018,11 @@
       <c r="E159" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>162</v>
       </c>
@@ -4213,8 +5032,11 @@
       <c r="D160" s="11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>162</v>
       </c>
@@ -4224,8 +5046,11 @@
       <c r="D161" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>162</v>
       </c>
@@ -4235,8 +5060,11 @@
       <c r="D162" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>162</v>
       </c>
@@ -4249,16 +5077,22 @@
       <c r="E163" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
         <v>162</v>
       </c>
@@ -4268,8 +5102,11 @@
       <c r="D165" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>162</v>
       </c>
@@ -4279,8 +5116,11 @@
       <c r="D166" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>162</v>
       </c>
@@ -4290,8 +5130,11 @@
       <c r="D167" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>166</v>
       </c>
@@ -4301,8 +5144,11 @@
       <c r="D168" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>166</v>
       </c>
@@ -4312,16 +5158,22 @@
       <c r="D169" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
         <v>166</v>
       </c>
@@ -4334,8 +5186,11 @@
       <c r="E171" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
         <v>166</v>
       </c>
@@ -4345,8 +5200,11 @@
       <c r="D172" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>166</v>
       </c>
@@ -4356,16 +5214,22 @@
       <c r="D173" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>166</v>
       </c>
@@ -4375,8 +5239,11 @@
       <c r="D175" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
         <v>166</v>
       </c>
@@ -4386,8 +5253,11 @@
       <c r="D176" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
         <v>166</v>
       </c>
@@ -4400,16 +5270,22 @@
       <c r="E177" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
         <v>166</v>
       </c>
@@ -4422,8 +5298,11 @@
       <c r="E179" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>166</v>
       </c>
@@ -4436,16 +5315,22 @@
       <c r="E180" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>166</v>
       </c>
@@ -4458,16 +5343,22 @@
       <c r="E182" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
         <v>166</v>
       </c>
@@ -4477,8 +5368,11 @@
       <c r="D184" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>173</v>
       </c>
@@ -4489,7 +5383,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>173</v>
       </c>
@@ -4500,7 +5394,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>173</v>
       </c>
@@ -4511,7 +5405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>173</v>
       </c>
@@ -4525,7 +5419,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>173</v>
       </c>
@@ -4536,7 +5430,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>173</v>
       </c>
@@ -4547,7 +5441,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>173</v>
       </c>
@@ -4558,7 +5452,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>173</v>
       </c>
@@ -4918,7 +5812,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="s">
         <v>197</v>
       </c>
@@ -4929,7 +5823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="11" t="s">
         <v>197</v>
       </c>
@@ -4940,7 +5834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="11" t="s">
         <v>197</v>
       </c>
@@ -4951,7 +5845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="s">
         <v>197</v>
       </c>
@@ -4962,7 +5856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="s">
         <v>197</v>
       </c>
@@ -4976,7 +5870,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="11" t="s">
         <v>197</v>
       </c>
@@ -4984,7 +5878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="s">
         <v>197</v>
       </c>
@@ -4995,7 +5889,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="s">
         <v>197</v>
       </c>
@@ -5006,7 +5900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="s">
         <v>197</v>
       </c>
@@ -5014,7 +5908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
         <v>197</v>
       </c>
@@ -5025,7 +5919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
         <v>206</v>
       </c>
@@ -5035,8 +5929,11 @@
       <c r="E235" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
         <v>206</v>
       </c>
@@ -5046,8 +5943,11 @@
       <c r="E236" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
         <v>206</v>
       </c>
@@ -5057,8 +5957,11 @@
       <c r="D237" s="11" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
         <v>206</v>
       </c>
@@ -5071,8 +5974,11 @@
       <c r="E238" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
         <v>206</v>
       </c>
@@ -5085,8 +5991,11 @@
       <c r="E239" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
         <v>206</v>
       </c>
@@ -5096,8 +6005,11 @@
       <c r="D240" s="11" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="11" t="s">
         <v>205</v>
       </c>
@@ -5108,7 +6020,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="11" t="s">
         <v>205</v>
       </c>
@@ -5122,7 +6034,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="11" t="s">
         <v>205</v>
       </c>
@@ -5133,7 +6045,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="11" t="s">
         <v>205</v>
       </c>
@@ -5141,7 +6053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="11" t="s">
         <v>235</v>
       </c>
@@ -5152,7 +6064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="11" t="s">
         <v>235</v>
       </c>
@@ -5163,7 +6075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="s">
         <v>235</v>
       </c>
@@ -5177,7 +6089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="s">
         <v>235</v>
       </c>
@@ -5191,7 +6103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="11" t="s">
         <v>235</v>
       </c>
@@ -5202,7 +6114,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="11" t="s">
         <v>235</v>
       </c>
@@ -5213,7 +6125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="11" t="s">
         <v>235</v>
       </c>
@@ -5224,7 +6136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="11" t="s">
         <v>216</v>
       </c>
@@ -5234,8 +6146,14 @@
       <c r="D252" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252" t="s">
+        <v>327</v>
+      </c>
+      <c r="G252" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="11" t="s">
         <v>216</v>
       </c>
@@ -5245,8 +6163,14 @@
       <c r="D253" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253" t="s">
+        <v>327</v>
+      </c>
+      <c r="G253" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
         <v>216</v>
       </c>
@@ -5259,8 +6183,14 @@
       <c r="E254" s="11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254" t="s">
+        <v>327</v>
+      </c>
+      <c r="G254" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="s">
         <v>216</v>
       </c>
@@ -5270,8 +6200,14 @@
       <c r="D255" s="11" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255" t="s">
+        <v>327</v>
+      </c>
+      <c r="G255" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="11" t="s">
         <v>216</v>
       </c>
@@ -5281,8 +6217,14 @@
       <c r="D256" s="11" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256" t="s">
+        <v>327</v>
+      </c>
+      <c r="G256" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="11" t="s">
         <v>216</v>
       </c>
@@ -5292,8 +6234,14 @@
       <c r="D257" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" t="s">
+        <v>327</v>
+      </c>
+      <c r="G257" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="11" t="s">
         <v>216</v>
       </c>
@@ -5306,8 +6254,14 @@
       <c r="E258" s="11" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258" t="s">
+        <v>327</v>
+      </c>
+      <c r="G258" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="11" t="s">
         <v>216</v>
       </c>
@@ -5317,8 +6271,14 @@
       <c r="D259" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259" t="s">
+        <v>327</v>
+      </c>
+      <c r="G259" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="11" t="s">
         <v>216</v>
       </c>
@@ -5328,8 +6288,14 @@
       <c r="D260" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260" t="s">
+        <v>361</v>
+      </c>
+      <c r="G260" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="11" t="s">
         <v>216</v>
       </c>
@@ -5342,8 +6308,14 @@
       <c r="E261" s="11" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261" t="s">
+        <v>327</v>
+      </c>
+      <c r="G261" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="11" t="s">
         <v>216</v>
       </c>
@@ -5353,8 +6325,14 @@
       <c r="D262" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262" t="s">
+        <v>327</v>
+      </c>
+      <c r="G262" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="11" t="s">
         <v>216</v>
       </c>
@@ -5364,8 +6342,14 @@
       <c r="D263" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263" t="s">
+        <v>361</v>
+      </c>
+      <c r="G263" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
         <v>216</v>
       </c>
@@ -5378,8 +6362,14 @@
       <c r="E264" s="11" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264" t="s">
+        <v>327</v>
+      </c>
+      <c r="G264" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="11" t="s">
         <v>216</v>
       </c>
@@ -5389,8 +6379,14 @@
       <c r="D265" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265" t="s">
+        <v>327</v>
+      </c>
+      <c r="G265" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="11" t="s">
         <v>216</v>
       </c>
@@ -5400,8 +6396,14 @@
       <c r="D266" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266" t="s">
+        <v>362</v>
+      </c>
+      <c r="G266" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="11" t="s">
         <v>216</v>
       </c>
@@ -5411,8 +6413,14 @@
       <c r="D267" s="11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267" t="s">
+        <v>363</v>
+      </c>
+      <c r="G267" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="11" t="s">
         <v>216</v>
       </c>
@@ -5422,8 +6430,14 @@
       <c r="D268" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268" t="s">
+        <v>361</v>
+      </c>
+      <c r="G268" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="11" t="s">
         <v>216</v>
       </c>
@@ -5436,8 +6450,14 @@
       <c r="E269" s="11" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269" t="s">
+        <v>327</v>
+      </c>
+      <c r="G269" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="11" t="s">
         <v>216</v>
       </c>
@@ -5450,8 +6470,14 @@
       <c r="E270" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270" t="s">
+        <v>364</v>
+      </c>
+      <c r="G270" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="11" t="s">
         <v>216</v>
       </c>
@@ -5461,8 +6487,14 @@
       <c r="D271" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271" t="s">
+        <v>365</v>
+      </c>
+      <c r="G271" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="11" t="s">
         <v>216</v>
       </c>
@@ -5475,8 +6507,14 @@
       <c r="E272" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272" t="s">
+        <v>366</v>
+      </c>
+      <c r="G272" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="11" t="s">
         <v>216</v>
       </c>
@@ -5489,8 +6527,14 @@
       <c r="E273" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273" t="s">
+        <v>367</v>
+      </c>
+      <c r="G273" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="11" t="s">
         <v>216</v>
       </c>
@@ -5500,8 +6544,14 @@
       <c r="D274" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274" t="s">
+        <v>327</v>
+      </c>
+      <c r="G274" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="11" t="s">
         <v>268</v>
       </c>
@@ -5511,8 +6561,11 @@
       <c r="D275" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="11" t="s">
         <v>268</v>
       </c>
@@ -5522,8 +6575,11 @@
       <c r="D276" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="s">
         <v>268</v>
       </c>
@@ -5536,8 +6592,11 @@
       <c r="E277" s="11" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="11" t="s">
         <v>268</v>
       </c>
@@ -5547,8 +6606,11 @@
       <c r="D278" s="11" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="11" t="s">
         <v>268</v>
       </c>
@@ -5561,8 +6623,11 @@
       <c r="E279" s="11" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="11" t="s">
         <v>268</v>
       </c>
@@ -5572,8 +6637,11 @@
       <c r="D280" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
         <v>268</v>
       </c>
@@ -5583,8 +6651,11 @@
       <c r="D281" s="11" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="11" t="s">
         <v>268</v>
       </c>
@@ -5594,8 +6665,11 @@
       <c r="D282" s="11" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="s">
         <v>268</v>
       </c>
@@ -5605,8 +6679,11 @@
       <c r="D283" s="11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="11" t="s">
         <v>268</v>
       </c>
@@ -5616,8 +6693,11 @@
       <c r="D284" s="11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="11" t="s">
         <v>268</v>
       </c>
@@ -5627,8 +6707,11 @@
       <c r="D285" s="11" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="s">
         <v>268</v>
       </c>
@@ -5638,8 +6721,11 @@
       <c r="D286" s="11" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="11" t="s">
         <v>268</v>
       </c>
@@ -5649,8 +6735,11 @@
       <c r="D287" s="11" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
         <v>268</v>
       </c>
@@ -5660,8 +6749,11 @@
       <c r="D288" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="11" t="s">
         <v>268</v>
       </c>
@@ -5671,8 +6763,11 @@
       <c r="D289" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F289" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="11" t="s">
         <v>259</v>
       </c>
@@ -5682,8 +6777,11 @@
       <c r="D290" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="s">
         <v>259</v>
       </c>
@@ -5696,16 +6794,22 @@
       <c r="E291" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="s">
         <v>259</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="s">
         <v>259</v>
       </c>
@@ -5713,13 +6817,16 @@
         <v>77</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E293" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F293" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="s">
         <v>259</v>
       </c>
@@ -5732,8 +6839,11 @@
       <c r="E294" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="11" t="s">
         <v>259</v>
       </c>
@@ -5746,8 +6856,11 @@
       <c r="E295" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F295" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="s">
         <v>259</v>
       </c>
@@ -5760,16 +6873,22 @@
       <c r="E296" s="11" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="s">
         <v>259</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="F297" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="s">
         <v>259</v>
       </c>
@@ -5779,8 +6898,11 @@
       <c r="D298" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="s">
         <v>265</v>
       </c>
@@ -5790,16 +6912,22 @@
       <c r="D299" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F299" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
         <v>265</v>
       </c>
@@ -5812,8 +6940,11 @@
       <c r="E301" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F301" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="s">
         <v>265</v>
       </c>
@@ -5826,8 +6957,11 @@
       <c r="E302" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="s">
         <v>265</v>
       </c>
@@ -5835,13 +6969,16 @@
         <v>41</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E303" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F303" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="s">
         <v>265</v>
       </c>
@@ -5854,8 +6991,11 @@
       <c r="E304" s="11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
         <v>265</v>
       </c>
@@ -5868,8 +7008,11 @@
       <c r="E305" s="11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="s">
         <v>265</v>
       </c>
@@ -5877,10 +7020,13 @@
         <v>21</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F306" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
         <v>265</v>
       </c>
@@ -5888,13 +7034,16 @@
         <v>41</v>
       </c>
       <c r="D307" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E307" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E307" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="s">
         <v>265</v>
       </c>
@@ -5902,13 +7051,16 @@
         <v>41</v>
       </c>
       <c r="D308" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E308" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E308" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="s">
         <v>265</v>
       </c>
@@ -5918,10 +7070,13 @@
       <c r="D309" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>21</v>
@@ -5929,18 +7084,24 @@
       <c r="D310" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>77</v>
@@ -5951,63 +7112,78 @@
       <c r="E312" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E313" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E314" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="F315" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D316" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E316" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E316" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>21</v>
@@ -6015,10 +7191,13 @@
       <c r="D317" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>21</v>
@@ -6026,18 +7205,24 @@
       <c r="D318" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>77</v>
@@ -6048,49 +7233,61 @@
       <c r="E320" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F320" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E321" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F321" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E322" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F322" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="F323" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>21</v>
@@ -6098,10 +7295,13 @@
       <c r="D324" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F324" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>21</v>
@@ -6109,18 +7309,24 @@
       <c r="D325" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F325" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F326" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>77</v>
@@ -6131,49 +7337,61 @@
       <c r="E327" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F327" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E328" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E329" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F329" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="F330" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C331" s="11" t="s">
         <v>21</v>
@@ -6181,10 +7399,13 @@
       <c r="D331" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F331" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>21</v>
@@ -6192,10 +7413,13 @@
       <c r="D332" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F332" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>77</v>
@@ -6206,46 +7430,58 @@
       <c r="E333" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F333" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F334" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E335" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F335" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E336" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F336" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>41</v>
@@ -6256,10 +7492,13 @@
       <c r="E337" s="11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F337" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>41</v>
@@ -6270,57 +7509,72 @@
       <c r="E338" s="11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F338" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F339" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F340" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D341" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E341" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E341" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F341" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D342" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E342" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E342" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F342" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>21</v>
@@ -6328,10 +7582,13 @@
       <c r="D343" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F343" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>21</v>
@@ -6339,10 +7596,13 @@
       <c r="D344" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F344" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>77</v>
@@ -6353,18 +7613,24 @@
       <c r="E345" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F345" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F346" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>41</v>
@@ -6375,10 +7641,13 @@
       <c r="E347" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F347" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>41</v>
@@ -6389,18 +7658,24 @@
       <c r="E348" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F348" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C349" s="12" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F349" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>41</v>
@@ -6411,10 +7686,13 @@
       <c r="E350" s="11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F350" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>41</v>
@@ -6425,338 +7703,864 @@
       <c r="E351" s="11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F351" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C352" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D352" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F352" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E353" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F353" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D354" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E354" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F354" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E355" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E354" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C355" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D355" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F355" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E356" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F356" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E357" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F357" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D358" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E358" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F358" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C359" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D359" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F359" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C358" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D358" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C359" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D359" s="11" t="s">
+      <c r="C360" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D360" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C360" s="11" t="s">
+      <c r="F360" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C361" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D360" s="11" t="s">
+      <c r="D361" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E360" s="11" t="s">
+      <c r="E361" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C361" s="11" t="s">
+      <c r="F361" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C362" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C362" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D362" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E362" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F362" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F363" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F364" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E365" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F365" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D366" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E366" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F366" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D367" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F367" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C366" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D366" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C367" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D367" s="11" t="s">
+      <c r="C368" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D368" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C368" s="11" t="s">
+      <c r="F368" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C369" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D368" s="11" t="s">
+      <c r="D369" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E368" s="11" t="s">
+      <c r="E369" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C369" s="11" t="s">
+      <c r="F369" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C370" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C370" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D370" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E370" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D371" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F371" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D372" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E371" s="11" t="s">
+      <c r="E372" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="11" t="s">
+      <c r="F372" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F373" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C372" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D372" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C373" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D373" s="11" t="s">
+      <c r="C374" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D374" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C374" s="11" t="s">
+      <c r="F374" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C375" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D374" s="11" t="s">
+      <c r="D375" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E374" s="11" t="s">
+      <c r="E375" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C375" s="11" t="s">
+      <c r="F375" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C376" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C376" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D376" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E376" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F376" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D377" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F377" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D378" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E377" s="11" t="s">
+      <c r="E378" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C378" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D378" s="11" t="s">
+      <c r="F378" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D379" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="F379" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F380" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F381" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F382" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D383" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E383" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F383" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E384" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F384" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D385" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F385" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D386" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F386" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D387" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E387" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F387" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F388" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D389" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E389" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F389" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D390" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F390" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D391" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E391" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F391" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D392" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F392" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D393" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F393" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D394" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F394" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F395" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D396" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E396" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F396" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D397" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E397" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F397" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D398" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E398" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F398" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C399" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D399" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E399" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F399" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C400" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D400" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E400" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F400" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D401" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E401" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F401" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D402" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E402" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F402" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D403" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F403" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D404" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F404" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D405" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E405" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F405" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D406" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F406" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D407" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F407" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6804,8 +8608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6987,24 +8791,24 @@
         <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
         <v>97</v>
@@ -7048,21 +8852,21 @@
         <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -7099,13 +8903,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -7142,13 +8946,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -7189,48 +8993,48 @@
         <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" t="s">
         <v>293</v>
-      </c>
-      <c r="J1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
         <v>295</v>
-      </c>
-      <c r="B2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" t="s">
-        <v>296</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" t="s">
         <v>297</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>297</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>298</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>298</v>
-      </c>
-      <c r="I2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J2" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -7268,48 +9072,48 @@
         <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" t="s">
         <v>293</v>
-      </c>
-      <c r="J1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
         <v>314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" t="s">
-        <v>315</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" t="s">
         <v>316</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>316</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>317</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>317</v>
-      </c>
-      <c r="I2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J2" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -7390,24 +9194,24 @@
         <v>75</v>
       </c>
       <c r="E1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
         <v>319</v>
-      </c>
-      <c r="F1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -7447,16 +9251,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -7469,7 +9273,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7490,16 +9294,215 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -7611,7 +9614,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
